--- a/Impact/impact_3.xlsx
+++ b/Impact/impact_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Investment</t>
   </si>
@@ -100,22 +100,25 @@
     <t>kha</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>Shading Trees</t>
+  </si>
+  <si>
+    <t>Number of coffee plants per hectare</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2360</t>
   </si>
 </sst>
 </file>
@@ -473,433 +476,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="2" spans="1:25">
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="C4">
-        <v>15.05941006913781</v>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0.9000001428648829</v>
+      </c>
+      <c r="E4">
+        <v>0.9354393007233739</v>
       </c>
       <c r="F4">
-        <v>0.6398286656331038</v>
+        <v>1.03937683581436</v>
       </c>
       <c r="G4">
-        <v>0.0113977126275131</v>
+        <v>0.9621149572921666</v>
       </c>
       <c r="H4">
-        <v>0.05449149692958599</v>
+        <v>0.04106397050782107</v>
       </c>
       <c r="I4">
-        <v>1.269799678120762</v>
+        <v>0.05008577914486523</v>
       </c>
       <c r="J4">
-        <v>1.187678440939635</v>
+        <v>0.003466384087914776</v>
       </c>
       <c r="K4">
-        <v>1.518190041184425</v>
+        <v>0.08160151727497578</v>
       </c>
       <c r="L4">
-        <v>0.0005181713204365224</v>
+        <v>0.07793689612299204</v>
       </c>
       <c r="M4">
-        <v>0.0009185673316096654</v>
+        <v>0.06345285149291158</v>
       </c>
       <c r="N4">
-        <v>1.404879185429309e-06</v>
+        <v>0.0004663541913032532</v>
       </c>
       <c r="O4">
-        <v>0.06491394690237939</v>
+        <v>0.0008267106022685766</v>
       </c>
       <c r="P4">
-        <v>0.09720575390383601</v>
+        <v>1.264391357835848E-06</v>
       </c>
       <c r="Q4">
-        <v>0.00409148377366364</v>
+        <v>0.05842255218885839</v>
+      </c>
+      <c r="R4">
+        <v>0.08748517837375402</v>
+      </c>
+      <c r="S4">
+        <v>0.003682334907352924</v>
+      </c>
+      <c r="T4">
+        <v>-0.8208130559651181</v>
+      </c>
+      <c r="U4">
+        <v>-1.000888872295036</v>
+      </c>
+      <c r="V4">
+        <v>-0.06932641736693768</v>
+      </c>
+      <c r="W4">
+        <v>-1.573607793310657</v>
+      </c>
+      <c r="X4">
+        <v>-1.181571851484478</v>
+      </c>
+      <c r="Y4">
+        <v>-1.555055587552488</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="C5">
-        <v>16.06583239417523</v>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>0.9700001543387771</v>
+      </c>
+      <c r="E5">
+        <v>0.9354393007233739</v>
       </c>
       <c r="F5">
-        <v>0.6825969249475747</v>
+        <v>0.9643702596738633</v>
       </c>
       <c r="G5">
-        <v>0.01215931509796064</v>
+        <v>1.03694612102429</v>
       </c>
       <c r="H5">
-        <v>0.058136092670793</v>
+        <v>0.04106397050782107</v>
       </c>
       <c r="I5">
-        <v>1.354669690597802</v>
+        <v>0.05008577914486523</v>
       </c>
       <c r="J5">
-        <v>1.266944493865594</v>
+        <v>0.003466384087914776</v>
       </c>
       <c r="K5">
-        <v>1.619680810719728</v>
+        <v>0.08160151727497578</v>
       </c>
       <c r="L5">
-        <v>0.0005181713204365224</v>
+        <v>0.07793689612299204</v>
       </c>
       <c r="M5">
-        <v>0.0009185673316096654</v>
+        <v>0.06345285149291158</v>
       </c>
       <c r="N5">
-        <v>1.404879185429309e-06</v>
+        <v>0.000502626207889989</v>
       </c>
       <c r="O5">
-        <v>0.06491394690237939</v>
+        <v>0.0008910103115340462</v>
       </c>
       <c r="P5">
-        <v>0.09720575390383601</v>
+        <v>1.362733200949151E-06</v>
       </c>
       <c r="Q5">
-        <v>0.00409148377366364</v>
+        <v>0.06296652834862471</v>
+      </c>
+      <c r="R5">
+        <v>0.09428958129137754</v>
+      </c>
+      <c r="S5">
+        <v>0.003968738950788975</v>
+      </c>
+      <c r="T5">
+        <v>-0.8207767839485314</v>
+      </c>
+      <c r="U5">
+        <v>-1.000824572585771</v>
+      </c>
+      <c r="V5">
+        <v>-0.06932631902509456</v>
+      </c>
+      <c r="W5">
+        <v>-1.569063817150891</v>
+      </c>
+      <c r="X5">
+        <v>-1.174767448566854</v>
+      </c>
+      <c r="Y5">
+        <v>-1.554769183509052</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="C6">
-        <v>17.07225268799812</v>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1.040000165812671</v>
+      </c>
+      <c r="E6">
+        <v>0.9354393007233739</v>
       </c>
       <c r="F6">
-        <v>0.7253650979255326</v>
+        <v>0.8994607226744123</v>
       </c>
       <c r="G6">
-        <v>0.01292091603318113</v>
+        <v>1.111777284756414</v>
       </c>
       <c r="H6">
-        <v>0.06178068105509738</v>
+        <v>0.04106397050782107</v>
       </c>
       <c r="I6">
-        <v>1.439539531245828</v>
+        <v>0.05008577914486523</v>
       </c>
       <c r="J6">
-        <v>1.346210386836901</v>
+        <v>0.003466384087914776</v>
       </c>
       <c r="K6">
-        <v>1.721171375364065</v>
+        <v>0.08160151727497578</v>
       </c>
       <c r="L6">
-        <v>0.0005181713204365224</v>
+        <v>0.07793689612299204</v>
       </c>
       <c r="M6">
-        <v>0.0009185673316096654</v>
+        <v>0.06345285149291158</v>
       </c>
       <c r="N6">
-        <v>1.404879185429309e-06</v>
+        <v>0.0005388981808209792</v>
       </c>
       <c r="O6">
-        <v>0.06491394690237939</v>
+        <v>0.0009553100280754734</v>
       </c>
       <c r="P6">
-        <v>0.09720575390383601</v>
+        <v>1.461075044062454E-06</v>
       </c>
       <c r="Q6">
-        <v>0.00409148377366364</v>
+        <v>0.06751050450839102</v>
+      </c>
+      <c r="R6">
+        <v>0.1010939842090011</v>
+      </c>
+      <c r="S6">
+        <v>0.004255143459886312</v>
+      </c>
+      <c r="T6">
+        <v>-0.8207405119756004</v>
+      </c>
+      <c r="U6">
+        <v>-1.000760272869229</v>
+      </c>
+      <c r="V6">
+        <v>-0.06932622068325145</v>
+      </c>
+      <c r="W6">
+        <v>-1.564519840991125</v>
+      </c>
+      <c r="X6">
+        <v>-1.16796304564923</v>
+      </c>
+      <c r="Y6">
+        <v>-1.554482778999954</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="C7">
-        <v>18.07867095060647</v>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1.11000017542392</v>
+      </c>
+      <c r="E7">
+        <v>0.9354393007233739</v>
       </c>
       <c r="F7">
-        <v>0.7681331846106332</v>
+        <v>0.842737975573851</v>
       </c>
       <c r="G7">
-        <v>0.01368251543681254</v>
+        <v>1.186608446497339</v>
       </c>
       <c r="H7">
-        <v>0.0654252620824991</v>
+        <v>0.04106397050782107</v>
       </c>
       <c r="I7">
-        <v>1.524409200996161</v>
+        <v>0.05008577914486523</v>
       </c>
       <c r="J7">
-        <v>1.425476119853556</v>
+        <v>0.003466384087914776</v>
       </c>
       <c r="K7">
-        <v>1.822661735117435</v>
+        <v>0.08160151727497578</v>
       </c>
       <c r="L7">
-        <v>0.0005181713204365224</v>
+        <v>0.07793689612299204</v>
       </c>
       <c r="M7">
-        <v>0.0009185673316096654</v>
+        <v>0.06345285149291158</v>
       </c>
       <c r="N7">
-        <v>1.404879185429309e-06</v>
+        <v>0.000575170197407715</v>
       </c>
       <c r="O7">
-        <v>0.06491394690237939</v>
+        <v>0.001019609739159932</v>
       </c>
       <c r="P7">
-        <v>0.09720575390383601</v>
+        <v>1.559415977681056E-06</v>
       </c>
       <c r="Q7">
-        <v>0.00409148377366364</v>
+        <v>0.07205448066815734</v>
+      </c>
+      <c r="R7">
+        <v>0.1078983871266246</v>
+      </c>
+      <c r="S7">
+        <v>0.004541547037661076</v>
+      </c>
+      <c r="T7">
+        <v>-0.8207042399590136</v>
+      </c>
+      <c r="U7">
+        <v>-1.000695973158145</v>
+      </c>
+      <c r="V7">
+        <v>-0.06932612234231783</v>
+      </c>
+      <c r="W7">
+        <v>-1.559975864831358</v>
+      </c>
+      <c r="X7">
+        <v>-1.161158642731607</v>
+      </c>
+      <c r="Y7">
+        <v>-1.55419637542218</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="C8">
-        <v>19.08508718200028</v>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1.180000188760459</v>
+      </c>
+      <c r="E8">
+        <v>0.9354393007233739</v>
       </c>
       <c r="F8">
-        <v>0.810901184915565</v>
+        <v>0.7927450432919113</v>
       </c>
       <c r="G8">
-        <v>0.01444411330157891</v>
+        <v>1.261439612220661</v>
       </c>
       <c r="H8">
-        <v>0.06906983575390768</v>
+        <v>0.04106397050782107</v>
       </c>
       <c r="I8">
-        <v>1.60927869938314</v>
+        <v>0.05008577914486523</v>
       </c>
       <c r="J8">
-        <v>1.504741693614051</v>
+        <v>0.003466384087914776</v>
       </c>
       <c r="K8">
-        <v>1.924151889979839</v>
+        <v>0.08160151727497578</v>
       </c>
       <c r="L8">
-        <v>0.0005181713204365224</v>
+        <v>0.07793689612299204</v>
       </c>
       <c r="M8">
-        <v>0.0009185673316096654</v>
+        <v>0.06345285149291158</v>
       </c>
       <c r="N8">
-        <v>1.404879185429309e-06</v>
+        <v>0.0006114421703387052</v>
       </c>
       <c r="O8">
-        <v>0.06491394690237939</v>
+        <v>0.001083909450244391</v>
       </c>
       <c r="P8">
-        <v>0.09720575390383601</v>
+        <v>1.657758730289061E-06</v>
       </c>
       <c r="Q8">
-        <v>0.00409148377366364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="C9">
-        <v>20.09150138031691</v>
-      </c>
-      <c r="F9">
-        <v>0.8536690989421913</v>
-      </c>
-      <c r="G9">
-        <v>0.01520570962748025</v>
-      </c>
-      <c r="H9">
-        <v>0.07271440206841362</v>
-      </c>
-      <c r="I9">
-        <v>1.694148026639596</v>
-      </c>
-      <c r="J9">
-        <v>1.584007106488571</v>
-      </c>
-      <c r="K9">
-        <v>2.025641840416938</v>
-      </c>
-      <c r="L9">
-        <v>0.0005181713204365224</v>
-      </c>
-      <c r="M9">
-        <v>0.0009185673316096654</v>
-      </c>
-      <c r="N9">
-        <v>1.404879185429309e-06</v>
-      </c>
-      <c r="O9">
-        <v>0.06491394690237939</v>
-      </c>
-      <c r="P9">
-        <v>0.09720575390383601</v>
-      </c>
-      <c r="Q9">
-        <v>0.00409148377366364</v>
+        <v>0.0765984570607543</v>
+      </c>
+      <c r="R8">
+        <v>0.1147027895785868</v>
+      </c>
+      <c r="S8">
+        <v>0.004827951081097126</v>
+      </c>
+      <c r="T8">
+        <v>-0.8206679679860827</v>
+      </c>
+      <c r="U8">
+        <v>-1.00063167344706</v>
+      </c>
+      <c r="V8">
+        <v>-0.06932602399956522</v>
+      </c>
+      <c r="W8">
+        <v>-1.555431888438761</v>
+      </c>
+      <c r="X8">
+        <v>-1.154354240279645</v>
+      </c>
+      <c r="Y8">
+        <v>-1.553909971378744</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Impact/impact_3.xlsx
+++ b/Impact/impact_3.xlsx
@@ -634,31 +634,31 @@
         <v>0.9000001428648829</v>
       </c>
       <c r="E4">
-        <v>0.9354393007233739</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="F4">
-        <v>1.03937683581436</v>
+        <v>0.6786413707008935</v>
       </c>
       <c r="G4">
-        <v>0.9621149572921666</v>
+        <v>1.473532329700458</v>
       </c>
       <c r="H4">
-        <v>0.04106397050782107</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="I4">
-        <v>0.05008577914486523</v>
+        <v>0.04984009368308762</v>
       </c>
       <c r="J4">
-        <v>0.003466384087914776</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="K4">
-        <v>0.08160151727497578</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="L4">
-        <v>0.07793689612299204</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M4">
-        <v>0.06345285149291158</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="N4">
         <v>0.0004663541913032532</v>
@@ -667,7 +667,7 @@
         <v>0.0008267106022685766</v>
       </c>
       <c r="P4">
-        <v>1.264391357835848E-06</v>
+        <v>1.264391357835848e-06</v>
       </c>
       <c r="Q4">
         <v>0.05842255218885839</v>
@@ -679,22 +679,22 @@
         <v>0.003682334907352924</v>
       </c>
       <c r="T4">
-        <v>-0.8208130559651181</v>
+        <v>-0.544880636211019</v>
       </c>
       <c r="U4">
-        <v>-1.000888872295036</v>
+        <v>-0.9959751630594837</v>
       </c>
       <c r="V4">
-        <v>-0.06932641736693768</v>
+        <v>-0.04581220059390034</v>
       </c>
       <c r="W4">
-        <v>-1.573607793310657</v>
+        <v>-1.026043121004477</v>
       </c>
       <c r="X4">
-        <v>-1.181571851484478</v>
+        <v>-0.5267733195796609</v>
       </c>
       <c r="Y4">
-        <v>-1.555055587552488</v>
+        <v>-1.043646561913192</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -707,31 +707,31 @@
         <v>0.9700001543387771</v>
       </c>
       <c r="E5">
-        <v>0.9354393007233739</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="F5">
-        <v>0.9643702596738633</v>
+        <v>0.6296672509306708</v>
       </c>
       <c r="G5">
-        <v>1.03694612102429</v>
+        <v>1.588140400381256</v>
       </c>
       <c r="H5">
-        <v>0.04106397050782107</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="I5">
-        <v>0.05008577914486523</v>
+        <v>0.04984009368308762</v>
       </c>
       <c r="J5">
-        <v>0.003466384087914776</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="K5">
-        <v>0.08160151727497578</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="L5">
-        <v>0.07793689612299204</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M5">
-        <v>0.06345285149291158</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="N5">
         <v>0.000502626207889989</v>
@@ -740,7 +740,7 @@
         <v>0.0008910103115340462</v>
       </c>
       <c r="P5">
-        <v>1.362733200949151E-06</v>
+        <v>1.362733200949151e-06</v>
       </c>
       <c r="Q5">
         <v>0.06296652834862471</v>
@@ -752,22 +752,22 @@
         <v>0.003968738950788975</v>
       </c>
       <c r="T5">
-        <v>-0.8207767839485314</v>
+        <v>-0.5448443641944323</v>
       </c>
       <c r="U5">
-        <v>-1.000824572585771</v>
+        <v>-0.9959108633502183</v>
       </c>
       <c r="V5">
-        <v>-0.06932631902509456</v>
+        <v>-0.04581210225205723</v>
       </c>
       <c r="W5">
-        <v>-1.569063817150891</v>
+        <v>-1.021499144844711</v>
       </c>
       <c r="X5">
-        <v>-1.174767448566854</v>
+        <v>-0.5199689166620374</v>
       </c>
       <c r="Y5">
-        <v>-1.554769183509052</v>
+        <v>-1.043360157869756</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -780,31 +780,31 @@
         <v>1.040000165812671</v>
       </c>
       <c r="E6">
-        <v>0.9354393007233739</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="F6">
-        <v>0.8994607226744123</v>
+        <v>0.5872858011590353</v>
       </c>
       <c r="G6">
-        <v>1.111777284756414</v>
+        <v>1.702748471062053</v>
       </c>
       <c r="H6">
-        <v>0.04106397050782107</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="I6">
-        <v>0.05008577914486523</v>
+        <v>0.04984009368308762</v>
       </c>
       <c r="J6">
-        <v>0.003466384087914776</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="K6">
-        <v>0.08160151727497578</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="L6">
-        <v>0.07793689612299204</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M6">
-        <v>0.06345285149291158</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="N6">
         <v>0.0005388981808209792</v>
@@ -813,7 +813,7 @@
         <v>0.0009553100280754734</v>
       </c>
       <c r="P6">
-        <v>1.461075044062454E-06</v>
+        <v>1.461075044062454e-06</v>
       </c>
       <c r="Q6">
         <v>0.06751050450839102</v>
@@ -825,22 +825,22 @@
         <v>0.004255143459886312</v>
       </c>
       <c r="T6">
-        <v>-0.8207405119756004</v>
+        <v>-0.5448080922215013</v>
       </c>
       <c r="U6">
-        <v>-1.000760272869229</v>
+        <v>-0.9958465636336769</v>
       </c>
       <c r="V6">
-        <v>-0.06932622068325145</v>
+        <v>-0.04581200391021412</v>
       </c>
       <c r="W6">
-        <v>-1.564519840991125</v>
+        <v>-1.016955168684945</v>
       </c>
       <c r="X6">
-        <v>-1.16796304564923</v>
+        <v>-0.5131645137444139</v>
       </c>
       <c r="Y6">
-        <v>-1.554482778999954</v>
+        <v>-1.043073753360659</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -853,31 +853,31 @@
         <v>1.11000017542392</v>
       </c>
       <c r="E7">
-        <v>0.9354393007233739</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="F7">
-        <v>0.842737975573851</v>
+        <v>0.5502497604124811</v>
       </c>
       <c r="G7">
-        <v>1.186608446497339</v>
+        <v>1.81735653869322</v>
       </c>
       <c r="H7">
-        <v>0.04106397050782107</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="I7">
-        <v>0.05008577914486523</v>
+        <v>0.04984009368308762</v>
       </c>
       <c r="J7">
-        <v>0.003466384087914776</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="K7">
-        <v>0.08160151727497578</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="L7">
-        <v>0.07793689612299204</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M7">
-        <v>0.06345285149291158</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="N7">
         <v>0.000575170197407715</v>
@@ -886,7 +886,7 @@
         <v>0.001019609739159932</v>
       </c>
       <c r="P7">
-        <v>1.559415977681056E-06</v>
+        <v>1.559415977681056e-06</v>
       </c>
       <c r="Q7">
         <v>0.07205448066815734</v>
@@ -898,22 +898,22 @@
         <v>0.004541547037661076</v>
       </c>
       <c r="T7">
-        <v>-0.8207042399590136</v>
+        <v>-0.5447718202049145</v>
       </c>
       <c r="U7">
-        <v>-1.000695973158145</v>
+        <v>-0.9957822639225924</v>
       </c>
       <c r="V7">
-        <v>-0.06932612234231783</v>
+        <v>-0.0458119055692805</v>
       </c>
       <c r="W7">
-        <v>-1.559975864831358</v>
+        <v>-1.012411192525178</v>
       </c>
       <c r="X7">
-        <v>-1.161158642731607</v>
+        <v>-0.5063601108267903</v>
       </c>
       <c r="Y7">
-        <v>-1.55419637542218</v>
+        <v>-1.042787349782884</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -926,31 +926,31 @@
         <v>1.180000188760459</v>
       </c>
       <c r="E8">
-        <v>0.9354393007233739</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="F8">
-        <v>0.7927450432919113</v>
+        <v>0.5176078244753672</v>
       </c>
       <c r="G8">
-        <v>1.261439612220661</v>
+        <v>1.931964612423647</v>
       </c>
       <c r="H8">
-        <v>0.04106397050782107</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="I8">
-        <v>0.05008577914486523</v>
+        <v>0.04984009368308762</v>
       </c>
       <c r="J8">
-        <v>0.003466384087914776</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="K8">
-        <v>0.08160151727497578</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="L8">
-        <v>0.07793689612299204</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="M8">
-        <v>0.06345285149291158</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="N8">
         <v>0.0006114421703387052</v>
@@ -959,7 +959,7 @@
         <v>0.001083909450244391</v>
       </c>
       <c r="P8">
-        <v>1.657758730289061E-06</v>
+        <v>1.657758730289061e-06</v>
       </c>
       <c r="Q8">
         <v>0.0765984570607543</v>
@@ -971,22 +971,22 @@
         <v>0.004827951081097126</v>
       </c>
       <c r="T8">
-        <v>-0.8206679679860827</v>
+        <v>-0.5447355482319836</v>
       </c>
       <c r="U8">
-        <v>-1.00063167344706</v>
+        <v>-0.9957179642115079</v>
       </c>
       <c r="V8">
-        <v>-0.06932602399956522</v>
+        <v>-0.04581180722652789</v>
       </c>
       <c r="W8">
-        <v>-1.555431888438761</v>
+        <v>-1.007867216132581</v>
       </c>
       <c r="X8">
-        <v>-1.154354240279645</v>
+        <v>-0.4995557083748281</v>
       </c>
       <c r="Y8">
-        <v>-1.553909971378744</v>
+        <v>-1.042500945739448</v>
       </c>
     </row>
   </sheetData>
